--- a/biology/Médecine/American_College_of_Radiology/American_College_of_Radiology.xlsx
+++ b/biology/Médecine/American_College_of_Radiology/American_College_of_Radiology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'American College of Radiology (ACR), fondé en 1923, est une société médicale professionnelle représentant près de 40 000 radiologues diagnostiques, radio-oncologues, radiologues interventionnels, médecins nucléaires et physiciens médicaux.
-L'ACR compte 54 sections aux États-Unis, au Canada et au sein du Council of Affiliated Regional Radiation Oncology Societies (CARROS)[1].
+L'ACR compte 54 sections aux États-Unis, au Canada et au sein du Council of Affiliated Regional Radiation Oncology Societies (CARROS).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Critères de pertinence de l'ACR</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les critères de pertinence de l'ACR (ACR AC) sont des lignes directrices fondées sur des données probantes qui aident les médecins traitants et les autres prestataires à prendre la décision la plus appropriée en matière d'imagerie ou de traitement pour un état clinique spécifique. Les ACR AC comprennent 178 sujets d'imagerie diagnostique et de radiologie interventionnelle avec 912 variantes cliniques et plus de 1 550 scénarios cliniques.
 Les ACR sont accessibles à tous les médecins via ACR Select, un module contenu dans CareSelect Imaging.
